--- a/src/test/resources/teammapping.xlsx
+++ b/src/test/resources/teammapping.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\IdeaProjects\Apollo-ta\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium-intellij\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E4E3C-0AB0-441E-A7B9-61FDF1F62FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
-    <sheet name="teammapping" sheetId="1" r:id="rId1"/>
+    <sheet name="searchrecruiter" sheetId="1" r:id="rId1"/>
+    <sheet name="sites" sheetId="2" r:id="rId2"/>
+    <sheet name="regionhr" sheetId="3" r:id="rId3"/>
+    <sheet name="locations" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,92 +27,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>user input</t>
-  </si>
-  <si>
-    <t>userexpected</t>
-  </si>
-  <si>
-    <t>Recruiter</t>
-  </si>
-  <si>
-    <t>malli arjun (Recruiter)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Candidate Allocation </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Candidate Auto Allocation </t>
-  </si>
-  <si>
-    <t>Max candidate Allocation</t>
-  </si>
-  <si>
-    <t>ANDHRA PRADESH</t>
+    <t xml:space="preserve">search recruiter input </t>
+  </si>
+  <si>
+    <t>Search recruiter expected</t>
+  </si>
+  <si>
+    <t>Candidate Allocation</t>
+  </si>
+  <si>
+    <t>Candidate Auto Allocation</t>
+  </si>
+  <si>
+    <t>Site input</t>
+  </si>
+  <si>
+    <t>Site exp</t>
+  </si>
+  <si>
+    <t>Apollo(866544)</t>
+  </si>
+  <si>
+    <t>Lokesh (Lokesh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokesh </t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected </t>
+  </si>
+  <si>
+    <t>shivam</t>
   </si>
   <si>
     <t xml:space="preserve">State </t>
   </si>
   <si>
-    <t>Coastal Andhra</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>AMALAPURAM</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>MALIKIPURAM</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Apollo 3</t>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>ASSAM</t>
+  </si>
+  <si>
+    <t>Central Assam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivam </t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Lokesh</t>
+  </si>
+  <si>
+    <t>shivam Reddy (shivam)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1E293B"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,11 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,11 +415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,72 +437,159 @@
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>